--- a/mbs-perturbation/mega/elm/smote/ELM_smote_results.xlsx
+++ b/mbs-perturbation/mega/elm/smote/ELM_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8129496402877698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7671957671957672</v>
+        <v>0.70625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8430232558139535</v>
+        <v>0.7558528428093646</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8953797669644663</v>
+        <v>0.8705056179775281</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8881578947368421</v>
+        <v>0.8607594936708861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8256880733944955</v>
+        <v>0.8192771084337349</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8824800580130528</v>
+        <v>0.9018082422203533</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8675496688741722</v>
+        <v>0.8354430379746836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6894736842105263</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7683284457478006</v>
+        <v>0.8098159509202455</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8317235396182765</v>
+        <v>0.891001400560224</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8979591836734694</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7252747252747253</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8024316109422492</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8528693528693528</v>
+        <v>0.8996196111580727</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8625</v>
+        <v>0.9182389937106918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7150259067357513</v>
+        <v>0.7807486631016043</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7818696883852692</v>
+        <v>0.8439306358381503</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8289718810036676</v>
+        <v>0.9045047278393598</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8903301236504451</v>
+        <v>0.8556909990862531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7336797309690684</v>
+        <v>0.7647105826897916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8042682148567536</v>
+        <v>0.8073914692164607</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8582849196937632</v>
+        <v>0.8934879199511077</v>
       </c>
     </row>
   </sheetData>
